--- a/biology/Zoologie/Episcada_polita/Episcada_polita.xlsx
+++ b/biology/Zoologie/Episcada_polita/Episcada_polita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada polita est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Episcada.
 </t>
@@ -511,16 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Episcada polita a été décrit par Gustav Weymer en 1899[1].
-Sous-espèces
-Episcada polita polita; présent en Colombie
-Episcada polita cabenis Haensch, 1905; présent en Colombie
-Episcada polita aprica, Neild, 2008; présent au Venezuela
-Episcada polita archaia, Neild, 2008; présent au Venezuela
-Episcada polita raymondi, Neild, 2008; présent au Venezuela[2]
-Episcada polita ssp présent  en Équateur[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada polita a été décrit par Gustav Weymer en 1899.
+</t>
         </is>
       </c>
     </row>
@@ -545,14 +553,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Episcada polita est un papillon d'une envergure d'environ 43 mm, à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave[3].
-Les ailes sont transparentes avec de très fines veines marron et une bordurenoire ou en partie jaune orangé : aux ailes antérieures une large bordure jaune orangé sur les 3/4 du bord interne, marron doublé de jaune orangé sur le bord costal le long de la cellule, noir sur le reste de l'aile antérieure et l'aile postérieure.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Episcada polita polita; présent en Colombie
+Episcada polita cabenis Haensch, 1905; présent en Colombie
+Episcada polita aprica, Neild, 2008; présent au Venezuela
+Episcada polita archaia, Neild, 2008; présent au Venezuela
+Episcada polita raymondi, Neild, 2008; présent au Venezuela
+Episcada polita ssp présent  en Équateur</t>
         </is>
       </c>
     </row>
@@ -577,10 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada polita est un papillon d'une envergure d'environ 43 mm, à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave.
+Les ailes sont transparentes avec de très fines veines marron et une bordurenoire ou en partie jaune orangé : aux ailes antérieures une large bordure jaune orangé sur les 3/4 du bord interne, marron doublé de jaune orangé sur le bord costal le long de la cellule, noir sur le reste de l'aile antérieure et l'aile postérieure.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,15 +628,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Episcada_polita</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_polita</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada polita est présent au Venezuela, en Colombie et en Équateur[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada polita est présent au Venezuela, en Colombie et en Équateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Episcada_polita</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_polita</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Episcada polita, sur Wikimedia CommonsEpiscada polita, sur Wikispecies
 </t>
